--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS009-001-JenisManfaat.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS009-001-JenisManfaat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNI - STI\PROJECT\2023\DPLK\12 Februari 2023\Setup_Kepesertaan\KEP.SET.003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB454342-4588-4450-9DB2-773769613603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25DDA0-1B21-41D0-8258-F557DDB5A036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>RUN</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Penyelia Settlement</t>
+  </si>
+  <si>
+    <t>Setup Kelengkapan Kepesertaan</t>
+  </si>
+  <si>
+    <t>SIDEBAR_SUBMENU_SUBMENU</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -506,17 +512,18 @@
     <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="15" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,13 +561,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,13 +604,16 @@
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
